--- a/_psychology_project/_results/descriptive/pivot_table_some_plots.xlsx
+++ b/_psychology_project/_results/descriptive/pivot_table_some_plots.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haachicanoy/Repositories/Statistical_consulting/_psychology_project/_results/descriptive/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D115C9FC-4EC2-7A46-8FE3-7E6FEEA37506}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E94982F5-2A66-884F-ABDB-9C1F05D4FC36}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14240" activeTab="1" xr2:uid="{DE7B9EA6-3550-EF4F-97BA-1457C0390E39}"/>
+    <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14240" activeTab="2" xr2:uid="{DE7B9EA6-3550-EF4F-97BA-1457C0390E39}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="5" r:id="rId3"/>
+    <pivotCache cacheId="5" r:id="rId4"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7160" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7168" uniqueCount="261">
   <si>
     <t>SbjNum</t>
   </si>
@@ -810,6 +811,9 @@
   <si>
     <t>Tecnología</t>
   </si>
+  <si>
+    <t>MCA conocimientos variables más importantes</t>
+  </si>
 </sst>
 </file>
 
@@ -901,6 +905,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -910,8 +916,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -33365,7 +33369,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2DC13C80-4970-5D4C-92E5-04D92D518AA9}">
   <dimension ref="A3:E60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
@@ -33425,20 +33429,20 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="11" t="s">
+      <c r="A25" s="13" t="s">
         <v>253</v>
       </c>
-      <c r="B25" s="10" t="s">
+      <c r="B25" s="12" t="s">
         <v>254</v>
       </c>
-      <c r="C25" s="10"/>
-      <c r="D25" s="10"/>
-      <c r="E25" s="11" t="s">
+      <c r="C25" s="12"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="13" t="s">
         <v>255</v>
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="14"/>
       <c r="B26" s="7" t="s">
         <v>185</v>
       </c>
@@ -33448,7 +33452,7 @@
       <c r="D26" s="7" t="s">
         <v>166</v>
       </c>
-      <c r="E26" s="12"/>
+      <c r="E26" s="14"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
@@ -33706,7 +33710,7 @@
       </c>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A42" s="13" t="s">
+      <c r="A42" s="10" t="s">
         <v>255</v>
       </c>
       <c r="B42" s="5">
@@ -33782,7 +33786,7 @@
       <c r="A60" t="s">
         <v>258</v>
       </c>
-      <c r="B60" s="14">
+      <c r="B60" s="11">
         <v>0.06</v>
       </c>
     </row>
@@ -33799,4 +33803,59 @@
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A31E765B-6383-9143-9834-54355A4B9CE1}">
+  <dimension ref="A1:A8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>